--- a/Result/hardward_performance.xlsx
+++ b/Result/hardward_performance.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tx-markzzhang/learning_noc/OpticalNoc/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/learning_noc/OpticalNoc/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E4CDC6DD-905C-8D42-9D5E-C2E749A025FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="hardware" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hardware!$A$1:$L$481</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -92,8 +99,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="191" formatCode="0E+00"/>
+    <numFmt numFmtId="192" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -687,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,26 +711,35 @@
     <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -727,6 +747,12 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -737,12 +763,6 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1055,20 +1075,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:L481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K379" sqref="K379:L477"/>
+      <selection activeCell="J370" sqref="J370:J470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="23.1640625" customWidth="1"/>
     <col min="6" max="6" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1144,7 +1164,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>169051000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>82855500000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1258,7 +1278,7 @@
         <v>6097170000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1296,7 +1316,7 @@
         <v>5289760000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1334,7 +1354,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1410,7 +1430,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1448,7 +1468,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1486,7 +1506,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1562,7 +1582,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1600,7 +1620,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1638,7 +1658,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1714,7 +1734,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1752,7 +1772,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1790,7 +1810,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1828,7 +1848,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1866,7 +1886,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1904,7 +1924,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1942,7 +1962,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1980,7 +2000,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2018,7 +2038,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2094,7 +2114,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2170,7 +2190,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -2208,7 +2228,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2246,7 +2266,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8</v>
       </c>
@@ -2284,7 +2304,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -2360,7 +2380,7 @@
         <v>866688000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -2398,7 +2418,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -2436,7 +2456,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -2474,7 +2494,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2512,7 +2532,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -2550,7 +2570,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2588,7 +2608,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2626,7 +2646,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>8</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>9181130000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>348783</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -2740,7 +2760,7 @@
         <v>66047.3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -2778,7 +2798,7 @@
         <v>66047.3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2816,7 +2836,7 @@
         <v>66047.3</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8</v>
       </c>
@@ -2854,7 +2874,7 @@
         <v>66047.3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2892,7 +2912,7 @@
         <v>66047.3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -2930,7 +2950,7 @@
         <v>66047.3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8</v>
       </c>
@@ -2968,7 +2988,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8</v>
       </c>
@@ -3006,7 +3026,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3044,7 +3064,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
@@ -3082,7 +3102,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8</v>
       </c>
@@ -3158,7 +3178,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>561387000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -3234,7 +3254,7 @@
         <v>4044110000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
@@ -3272,7 +3292,7 @@
         <v>1694090000</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8</v>
       </c>
@@ -3310,7 +3330,7 @@
         <v>110773000000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>1379010000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -3386,7 +3406,7 @@
         <v>2258430000</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8</v>
       </c>
@@ -3424,7 +3444,7 @@
         <v>165680000000</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8</v>
       </c>
@@ -3462,7 +3482,7 @@
         <v>1851650000</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -3500,7 +3520,7 @@
         <v>2264930000000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -3538,7 +3558,7 @@
         <v>85405700000</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8</v>
       </c>
@@ -3576,7 +3596,7 @@
         <v>282213000</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8</v>
       </c>
@@ -3614,7 +3634,7 @@
         <v>860833</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8</v>
       </c>
@@ -3652,7 +3672,7 @@
         <v>386858000</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -3690,7 +3710,7 @@
         <v>83763700000</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>714008</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8</v>
       </c>
@@ -3766,7 +3786,7 @@
         <v>2785730000000</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8</v>
       </c>
@@ -3804,7 +3824,7 @@
         <v>29726700</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8</v>
       </c>
@@ -3842,7 +3862,7 @@
         <v>1369320000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -3880,7 +3900,7 @@
         <v>44286100000</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -3918,7 +3938,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8</v>
       </c>
@@ -3956,7 +3976,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -3994,7 +4014,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -4070,7 +4090,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -4108,7 +4128,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -4146,7 +4166,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -4184,7 +4204,7 @@
         <v>189655000</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>8</v>
       </c>
@@ -4222,7 +4242,7 @@
         <v>1464270000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8</v>
       </c>
@@ -4260,7 +4280,7 @@
         <v>161766000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8</v>
       </c>
@@ -4298,7 +4318,7 @@
         <v>161766000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8</v>
       </c>
@@ -4336,7 +4356,7 @@
         <v>1453530000</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8</v>
       </c>
@@ -4374,7 +4394,7 @@
         <v>161766000</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8</v>
       </c>
@@ -4412,7 +4432,7 @@
         <v>161766000</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8</v>
       </c>
@@ -4450,7 +4470,7 @@
         <v>161766000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -4488,7 +4508,7 @@
         <v>16550400000000</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8</v>
       </c>
@@ -4526,7 +4546,7 @@
         <v>12566700000000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -4564,7 +4584,7 @@
         <v>860833</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -4602,7 +4622,7 @@
         <v>860833</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -4640,7 +4660,7 @@
         <v>1965420000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -4678,7 +4698,7 @@
         <v>14530600</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -4716,7 +4736,7 @@
         <v>860833</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>860833</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -4792,7 +4812,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -4830,7 +4850,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -4868,7 +4888,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -4906,7 +4926,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8</v>
       </c>
@@ -4944,7 +4964,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -4982,7 +5002,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -5020,7 +5040,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -5058,7 +5078,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>8</v>
       </c>
@@ -5096,7 +5116,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -5134,7 +5154,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -5172,7 +5192,7 @@
         <v>1892280000</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -5210,7 +5230,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>8</v>
       </c>
@@ -5248,7 +5268,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -5286,7 +5306,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>8</v>
       </c>
@@ -5324,7 +5344,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8</v>
       </c>
@@ -5362,7 +5382,7 @@
         <v>450265000</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>8</v>
       </c>
@@ -5400,7 +5420,7 @@
         <v>28078000000</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>8</v>
       </c>
@@ -5438,7 +5458,7 @@
         <v>1389400</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -5476,7 +5496,7 @@
         <v>1389400</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -5514,7 +5534,7 @@
         <v>1389400</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8</v>
       </c>
@@ -5552,7 +5572,7 @@
         <v>136917000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8</v>
       </c>
@@ -5590,7 +5610,7 @@
         <v>1389400</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>8</v>
       </c>
@@ -5628,7 +5648,7 @@
         <v>1389400</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>8</v>
       </c>
@@ -5666,7 +5686,7 @@
         <v>357700000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>8</v>
       </c>
@@ -5704,7 +5724,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>8</v>
       </c>
@@ -5742,7 +5762,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>8</v>
       </c>
@@ -5780,7 +5800,7 @@
         <v>9150210</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>8</v>
       </c>
@@ -5818,7 +5838,7 @@
         <v>12458800</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>8</v>
       </c>
@@ -5856,7 +5876,7 @@
         <v>1055540</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>8</v>
       </c>
@@ -5894,7 +5914,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>8</v>
       </c>
@@ -5932,7 +5952,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -5970,7 +5990,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>8</v>
       </c>
@@ -6008,7 +6028,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8</v>
       </c>
@@ -6046,7 +6066,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>8</v>
       </c>
@@ -6084,7 +6104,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8</v>
       </c>
@@ -6122,7 +6142,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8</v>
       </c>
@@ -6160,7 +6180,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8</v>
       </c>
@@ -6198,7 +6218,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8</v>
       </c>
@@ -6236,7 +6256,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8</v>
       </c>
@@ -6274,7 +6294,7 @@
         <v>122788000</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>8</v>
       </c>
@@ -6312,7 +6332,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>8</v>
       </c>
@@ -6350,7 +6370,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>8</v>
       </c>
@@ -6388,7 +6408,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8</v>
       </c>
@@ -6426,7 +6446,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>8</v>
       </c>
@@ -6464,7 +6484,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>8</v>
       </c>
@@ -6502,7 +6522,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>8</v>
       </c>
@@ -6540,7 +6560,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>8</v>
       </c>
@@ -6578,7 +6598,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>8</v>
       </c>
@@ -6616,7 +6636,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>8</v>
       </c>
@@ -6654,7 +6674,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>8</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>8</v>
       </c>
@@ -6730,7 +6750,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>8</v>
       </c>
@@ -6768,7 +6788,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>8</v>
       </c>
@@ -6806,7 +6826,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>8</v>
       </c>
@@ -6844,7 +6864,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>8</v>
       </c>
@@ -6882,7 +6902,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>8</v>
       </c>
@@ -6920,7 +6940,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8</v>
       </c>
@@ -6958,7 +6978,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -6996,7 +7016,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8</v>
       </c>
@@ -7034,7 +7054,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>8</v>
       </c>
@@ -7072,7 +7092,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8</v>
       </c>
@@ -7110,7 +7130,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8</v>
       </c>
@@ -7148,7 +7168,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -7186,7 +7206,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8</v>
       </c>
@@ -7224,7 +7244,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>8</v>
       </c>
@@ -7262,7 +7282,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>8</v>
       </c>
@@ -7300,7 +7320,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>8</v>
       </c>
@@ -7338,7 +7358,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>8</v>
       </c>
@@ -7376,7 +7396,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>8</v>
       </c>
@@ -7414,7 +7434,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>8</v>
       </c>
@@ -7452,7 +7472,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>8</v>
       </c>
@@ -7490,7 +7510,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>8</v>
       </c>
@@ -7528,7 +7548,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8</v>
       </c>
@@ -7566,7 +7586,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>8</v>
       </c>
@@ -7604,7 +7624,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>8</v>
       </c>
@@ -7642,7 +7662,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>8</v>
       </c>
@@ -7680,7 +7700,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>8</v>
       </c>
@@ -7718,7 +7738,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>8</v>
       </c>
@@ -7756,7 +7776,7 @@
         <v>327273</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -7794,7 +7814,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>8</v>
       </c>
@@ -7832,7 +7852,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>8</v>
       </c>
@@ -7870,7 +7890,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>8</v>
       </c>
@@ -7908,7 +7928,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>8</v>
       </c>
@@ -7946,7 +7966,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>8</v>
       </c>
@@ -7984,7 +8004,7 @@
         <v>81602.3</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>8</v>
       </c>
@@ -8022,7 +8042,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>8</v>
       </c>
@@ -8060,7 +8080,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>8</v>
       </c>
@@ -8098,7 +8118,7 @@
         <v>70249.899999999994</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>8</v>
       </c>
@@ -8136,7 +8156,7 @@
         <v>90.266300000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>8</v>
       </c>
@@ -8174,7 +8194,7 @@
         <v>72.346199999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:12" hidden="1">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>8</v>
       </c>
@@ -8212,7 +8232,7 @@
         <v>72.346199999999996</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>8</v>
       </c>
@@ -8250,7 +8270,7 @@
         <v>72.346199999999996</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>8</v>
       </c>
@@ -8288,7 +8308,7 @@
         <v>72.346199999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>8</v>
       </c>
@@ -8326,7 +8346,7 @@
         <v>72.346199999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>8</v>
       </c>
@@ -8364,7 +8384,7 @@
         <v>72.411000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>8</v>
       </c>
@@ -8402,7 +8422,7 @@
         <v>1673.94</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8</v>
       </c>
@@ -8440,7 +8460,7 @@
         <v>350124</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -8478,7 +8498,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>8</v>
       </c>
@@ -8516,7 +8536,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8</v>
       </c>
@@ -8554,7 +8574,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>8</v>
       </c>
@@ -8592,7 +8612,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>8</v>
       </c>
@@ -8630,7 +8650,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -8668,7 +8688,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>8</v>
       </c>
@@ -8706,7 +8726,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>8</v>
       </c>
@@ -8744,7 +8764,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>8</v>
       </c>
@@ -8782,7 +8802,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8</v>
       </c>
@@ -8820,7 +8840,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>8</v>
       </c>
@@ -8858,7 +8878,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>8</v>
       </c>
@@ -8896,7 +8916,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -8934,7 +8954,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -8972,7 +8992,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>8</v>
       </c>
@@ -9010,7 +9030,7 @@
         <v>35717500</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>8</v>
       </c>
@@ -9048,7 +9068,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>8</v>
       </c>
@@ -9086,7 +9106,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
@@ -9124,7 +9144,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>8</v>
       </c>
@@ -9162,7 +9182,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>8</v>
       </c>
@@ -9200,7 +9220,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>8</v>
       </c>
@@ -9238,7 +9258,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>8</v>
       </c>
@@ -9276,7 +9296,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>8</v>
       </c>
@@ -9314,7 +9334,7 @@
         <v>2349.15</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>8</v>
       </c>
@@ -9352,7 +9372,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -9390,7 +9410,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>8</v>
       </c>
@@ -9428,7 +9448,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
@@ -9466,7 +9486,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>8</v>
       </c>
@@ -9504,7 +9524,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>8</v>
       </c>
@@ -9542,7 +9562,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>8</v>
       </c>
@@ -9580,7 +9600,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>8</v>
       </c>
@@ -9618,7 +9638,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>8</v>
       </c>
@@ -9656,7 +9676,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>8</v>
       </c>
@@ -9694,7 +9714,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>8</v>
       </c>
@@ -9732,7 +9752,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>8</v>
       </c>
@@ -9770,7 +9790,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>8</v>
       </c>
@@ -9808,7 +9828,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>8</v>
       </c>
@@ -9846,7 +9866,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>8</v>
       </c>
@@ -9884,7 +9904,7 @@
         <v>2839.48</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>8</v>
       </c>
@@ -9922,7 +9942,7 @@
         <v>4962.05</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>8</v>
       </c>
@@ -9960,7 +9980,7 @@
         <v>78.180599999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>8</v>
       </c>
@@ -9998,7 +10018,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>8</v>
       </c>
@@ -10036,7 +10056,7 @@
         <v>95.841300000000004</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>8</v>
       </c>
@@ -10074,7 +10094,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>8</v>
       </c>
@@ -10112,7 +10132,7 @@
         <v>46.604799999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>8</v>
       </c>
@@ -10150,7 +10170,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>8</v>
       </c>
@@ -10188,7 +10208,7 @@
         <v>46.604799999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>8</v>
       </c>
@@ -10226,7 +10246,7 @@
         <v>42.9375</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>8</v>
       </c>
@@ -10264,7 +10284,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>8</v>
       </c>
@@ -10302,7 +10322,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>8</v>
       </c>
@@ -10340,7 +10360,7 @@
         <v>3396230</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>8</v>
       </c>
@@ -10378,7 +10398,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>8</v>
       </c>
@@ -10416,7 +10436,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>8</v>
       </c>
@@ -10454,7 +10474,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>8</v>
       </c>
@@ -10492,7 +10512,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>8</v>
       </c>
@@ -10530,7 +10550,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>8</v>
       </c>
@@ -10568,7 +10588,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>8</v>
       </c>
@@ -10606,7 +10626,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>8</v>
       </c>
@@ -10644,7 +10664,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>8</v>
       </c>
@@ -10682,7 +10702,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>8</v>
       </c>
@@ -10720,7 +10740,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>8</v>
       </c>
@@ -10758,7 +10778,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>8</v>
       </c>
@@ -10796,7 +10816,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>8</v>
       </c>
@@ -10834,7 +10854,7 @@
         <v>481501000</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>8</v>
       </c>
@@ -10872,7 +10892,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>8</v>
       </c>
@@ -10910,7 +10930,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8</v>
       </c>
@@ -10948,7 +10968,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>8</v>
       </c>
@@ -10986,7 +11006,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>8</v>
       </c>
@@ -11024,7 +11044,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>8</v>
       </c>
@@ -11062,7 +11082,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>8</v>
       </c>
@@ -11100,7 +11120,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8</v>
       </c>
@@ -11138,7 +11158,7 @@
         <v>1426400</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8</v>
       </c>
@@ -11176,7 +11196,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8</v>
       </c>
@@ -11214,7 +11234,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>8</v>
       </c>
@@ -11252,7 +11272,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>8</v>
       </c>
@@ -11290,7 +11310,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>8</v>
       </c>
@@ -11328,7 +11348,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>8</v>
       </c>
@@ -11366,7 +11386,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>8</v>
       </c>
@@ -11404,7 +11424,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>8</v>
       </c>
@@ -11442,7 +11462,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8</v>
       </c>
@@ -11480,7 +11500,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8</v>
       </c>
@@ -11518,7 +11538,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8</v>
       </c>
@@ -11556,7 +11576,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -11594,7 +11614,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8</v>
       </c>
@@ -11632,7 +11652,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>8</v>
       </c>
@@ -11670,7 +11690,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>8</v>
       </c>
@@ -11708,7 +11728,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>8</v>
       </c>
@@ -11746,7 +11766,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8</v>
       </c>
@@ -11784,7 +11804,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>8</v>
       </c>
@@ -11822,7 +11842,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>8</v>
       </c>
@@ -11860,7 +11880,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>8</v>
       </c>
@@ -11898,7 +11918,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8</v>
       </c>
@@ -11936,7 +11956,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>8</v>
       </c>
@@ -11974,7 +11994,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>8</v>
       </c>
@@ -12012,7 +12032,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>8</v>
       </c>
@@ -12050,7 +12070,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>8</v>
       </c>
@@ -12088,7 +12108,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>8</v>
       </c>
@@ -12126,7 +12146,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>8</v>
       </c>
@@ -12164,7 +12184,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>8</v>
       </c>
@@ -12202,7 +12222,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>8</v>
       </c>
@@ -12240,7 +12260,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>8</v>
       </c>
@@ -12278,7 +12298,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8</v>
       </c>
@@ -12316,7 +12336,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -12354,7 +12374,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8</v>
       </c>
@@ -12392,7 +12412,7 @@
         <v>15040400</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>8</v>
       </c>
@@ -12430,7 +12450,7 @@
         <v>15040400</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>8</v>
       </c>
@@ -12468,7 +12488,7 @@
         <v>9933630</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>8</v>
       </c>
@@ -12506,7 +12526,7 @@
         <v>190717000</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>8</v>
       </c>
@@ -12544,7 +12564,7 @@
         <v>25349500</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>8</v>
       </c>
@@ -12582,7 +12602,7 @@
         <v>21681300</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>8</v>
       </c>
@@ -12620,7 +12640,7 @@
         <v>21681300</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>8</v>
       </c>
@@ -12658,7 +12678,7 @@
         <v>15040400</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>8</v>
       </c>
@@ -12696,7 +12716,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>8</v>
       </c>
@@ -12734,7 +12754,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>8</v>
       </c>
@@ -12772,7 +12792,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>8</v>
       </c>
@@ -12810,7 +12830,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>8</v>
       </c>
@@ -12848,7 +12868,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>8</v>
       </c>
@@ -12886,7 +12906,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>8</v>
       </c>
@@ -12924,7 +12944,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -12962,7 +12982,7 @@
         <v>40883.300000000003</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>8</v>
       </c>
@@ -13000,7 +13020,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>8</v>
       </c>
@@ -13038,7 +13058,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>8</v>
       </c>
@@ -13076,7 +13096,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>8</v>
       </c>
@@ -13114,7 +13134,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>8</v>
       </c>
@@ -13152,7 +13172,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>8</v>
       </c>
@@ -13190,7 +13210,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>8</v>
       </c>
@@ -13228,7 +13248,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>8</v>
       </c>
@@ -13266,7 +13286,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>8</v>
       </c>
@@ -13304,7 +13324,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>8</v>
       </c>
@@ -13342,7 +13362,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>8</v>
       </c>
@@ -13380,7 +13400,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>8</v>
       </c>
@@ -13418,7 +13438,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>8</v>
       </c>
@@ -13456,7 +13476,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>8</v>
       </c>
@@ -13494,7 +13514,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>8</v>
       </c>
@@ -13532,7 +13552,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>8</v>
       </c>
@@ -13570,7 +13590,7 @@
         <v>74812600</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>8</v>
       </c>
@@ -13608,7 +13628,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>8</v>
       </c>
@@ -13646,7 +13666,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>8</v>
       </c>
@@ -13684,7 +13704,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>8</v>
       </c>
@@ -13722,7 +13742,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>8</v>
       </c>
@@ -13760,7 +13780,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>8</v>
       </c>
@@ -13798,7 +13818,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>8</v>
       </c>
@@ -13836,7 +13856,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>8</v>
       </c>
@@ -13874,7 +13894,7 @@
         <v>337958</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>8</v>
       </c>
@@ -13912,7 +13932,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>8</v>
       </c>
@@ -13950,7 +13970,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>8</v>
       </c>
@@ -13988,7 +14008,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>8</v>
       </c>
@@ -14026,7 +14046,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>8</v>
       </c>
@@ -14064,7 +14084,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>8</v>
       </c>
@@ -14102,7 +14122,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>8</v>
       </c>
@@ -14140,7 +14160,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>8</v>
       </c>
@@ -14178,7 +14198,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>8</v>
       </c>
@@ -14216,7 +14236,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>8</v>
       </c>
@@ -14254,7 +14274,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>8</v>
       </c>
@@ -14292,7 +14312,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>8</v>
       </c>
@@ -14330,7 +14350,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>8</v>
       </c>
@@ -14368,7 +14388,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>8</v>
       </c>
@@ -14406,7 +14426,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>8</v>
       </c>
@@ -14444,7 +14464,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>8</v>
       </c>
@@ -14482,7 +14502,7 @@
         <v>185994000</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>8</v>
       </c>
@@ -14520,7 +14540,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>8</v>
       </c>
@@ -14558,7 +14578,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>8</v>
       </c>
@@ -14596,7 +14616,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>8</v>
       </c>
@@ -14634,7 +14654,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>8</v>
       </c>
@@ -14672,7 +14692,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>8</v>
       </c>
@@ -14710,7 +14730,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>8</v>
       </c>
@@ -14748,7 +14768,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>8</v>
       </c>
@@ -14786,7 +14806,7 @@
         <v>546405</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>8</v>
       </c>
@@ -14824,7 +14844,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>8</v>
       </c>
@@ -14862,7 +14882,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>8</v>
       </c>
@@ -14900,7 +14920,7 @@
         <v>1002320000</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>8</v>
       </c>
@@ -14938,7 +14958,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>8</v>
       </c>
@@ -14976,7 +14996,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>8</v>
       </c>
@@ -15014,7 +15034,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>8</v>
       </c>
@@ -15052,7 +15072,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>8</v>
       </c>
@@ -15090,7 +15110,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>8</v>
       </c>
@@ -15128,7 +15148,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>8</v>
       </c>
@@ -15166,7 +15186,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>8</v>
       </c>
@@ -15204,7 +15224,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>8</v>
       </c>
@@ -15242,7 +15262,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>8</v>
       </c>
@@ -15280,7 +15300,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>8</v>
       </c>
@@ -15318,7 +15338,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>8</v>
       </c>
@@ -15356,7 +15376,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>8</v>
       </c>
@@ -15394,7 +15414,7 @@
         <v>67216700</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>8</v>
       </c>
@@ -15432,7 +15452,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>8</v>
       </c>
@@ -15470,7 +15490,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>8</v>
       </c>
@@ -15508,7 +15528,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>8</v>
       </c>
@@ -15546,7 +15566,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>8</v>
       </c>
@@ -15584,7 +15604,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>8</v>
       </c>
@@ -15622,7 +15642,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>8</v>
       </c>
@@ -15660,7 +15680,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="385" spans="1:12" hidden="1">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>8</v>
       </c>
@@ -15698,7 +15718,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>8</v>
       </c>
@@ -15736,7 +15756,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>8</v>
       </c>
@@ -15774,7 +15794,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>8</v>
       </c>
@@ -15812,7 +15832,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>8</v>
       </c>
@@ -15850,7 +15870,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>8</v>
       </c>
@@ -15888,7 +15908,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>8</v>
       </c>
@@ -15926,7 +15946,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>8</v>
       </c>
@@ -15964,7 +15984,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>8</v>
       </c>
@@ -16002,7 +16022,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>8</v>
       </c>
@@ -16040,7 +16060,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>8</v>
       </c>
@@ -16078,7 +16098,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>8</v>
       </c>
@@ -16116,7 +16136,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>8</v>
       </c>
@@ -16154,7 +16174,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>8</v>
       </c>
@@ -16192,7 +16212,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>8</v>
       </c>
@@ -16230,7 +16250,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>8</v>
       </c>
@@ -16268,7 +16288,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>8</v>
       </c>
@@ -16306,7 +16326,7 @@
         <v>7132500</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>8</v>
       </c>
@@ -16344,7 +16364,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>8</v>
       </c>
@@ -16382,7 +16402,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>8</v>
       </c>
@@ -16420,7 +16440,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>8</v>
       </c>
@@ -16458,7 +16478,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>8</v>
       </c>
@@ -16496,7 +16516,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>8</v>
       </c>
@@ -16534,7 +16554,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>8</v>
       </c>
@@ -16572,7 +16592,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>8</v>
       </c>
@@ -16610,7 +16630,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>8</v>
       </c>
@@ -16648,7 +16668,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>8</v>
       </c>
@@ -16686,7 +16706,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>8</v>
       </c>
@@ -16724,7 +16744,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>8</v>
       </c>
@@ -16762,7 +16782,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>8</v>
       </c>
@@ -16800,7 +16820,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>8</v>
       </c>
@@ -16838,7 +16858,7 @@
         <v>23849.3</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>8</v>
       </c>
@@ -16876,7 +16896,7 @@
         <v>6031340000</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>8</v>
       </c>
@@ -16914,7 +16934,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>8</v>
       </c>
@@ -16952,7 +16972,7 @@
         <v>67225900</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>8</v>
       </c>
@@ -16990,7 +17010,7 @@
         <v>9933630</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>8</v>
       </c>
@@ -17028,7 +17048,7 @@
         <v>9933630</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>8</v>
       </c>
@@ -17066,7 +17086,7 @@
         <v>15040400</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>8</v>
       </c>
@@ -17104,7 +17124,7 @@
         <v>15040400</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>8</v>
       </c>
@@ -17142,7 +17162,7 @@
         <v>9933630</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>8</v>
       </c>
@@ -17180,7 +17200,7 @@
         <v>9933630</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>8</v>
       </c>
@@ -17218,7 +17238,7 @@
         <v>9933630</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>8</v>
       </c>
@@ -17256,7 +17276,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>8</v>
       </c>
@@ -17294,7 +17314,7 @@
         <v>2803.06</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>8</v>
       </c>
@@ -17332,7 +17352,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>8</v>
       </c>
@@ -17370,7 +17390,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>8</v>
       </c>
@@ -17408,7 +17428,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>8</v>
       </c>
@@ -17446,7 +17466,7 @@
         <v>1554.89</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>8</v>
       </c>
@@ -17484,7 +17504,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>8</v>
       </c>
@@ -17522,7 +17542,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>8</v>
       </c>
@@ -17560,7 +17580,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>8</v>
       </c>
@@ -17598,7 +17618,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>8</v>
       </c>
@@ -17636,7 +17656,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>8</v>
       </c>
@@ -17674,7 +17694,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>8</v>
       </c>
@@ -17712,7 +17732,7 @@
         <v>22631.4</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>8</v>
       </c>
@@ -17750,7 +17770,7 @@
         <v>16605.2</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>8</v>
       </c>
@@ -17788,7 +17808,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>8</v>
       </c>
@@ -17826,7 +17846,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>8</v>
       </c>
@@ -17864,7 +17884,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>8</v>
       </c>
@@ -17902,7 +17922,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>8</v>
       </c>
@@ -17940,7 +17960,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>8</v>
       </c>
@@ -17978,7 +17998,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>8</v>
       </c>
@@ -18016,7 +18036,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>8</v>
       </c>
@@ -18054,7 +18074,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>8</v>
       </c>
@@ -18092,7 +18112,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>8</v>
       </c>
@@ -18130,7 +18150,7 @@
         <v>24924600</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>8</v>
       </c>
@@ -18168,7 +18188,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>8</v>
       </c>
@@ -18206,7 +18226,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>8</v>
       </c>
@@ -18244,7 +18264,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>8</v>
       </c>
@@ -18282,7 +18302,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>8</v>
       </c>
@@ -18320,7 +18340,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>8</v>
       </c>
@@ -18358,7 +18378,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>8</v>
       </c>
@@ -18396,7 +18416,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>8</v>
       </c>
@@ -18434,7 +18454,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>8</v>
       </c>
@@ -18472,7 +18492,7 @@
         <v>24886.400000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>8</v>
       </c>
@@ -18510,7 +18530,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>8</v>
       </c>
@@ -18548,7 +18568,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>8</v>
       </c>
@@ -18586,7 +18606,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>8</v>
       </c>
@@ -18624,7 +18644,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>8</v>
       </c>
@@ -18662,7 +18682,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>8</v>
       </c>
@@ -18700,7 +18720,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>8</v>
       </c>
@@ -18738,7 +18758,7 @@
         <v>109018</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>8</v>
       </c>
@@ -18776,7 +18796,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>8</v>
       </c>
@@ -18814,7 +18834,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>8</v>
       </c>
@@ -18852,7 +18872,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>8</v>
       </c>
@@ -18890,7 +18910,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>8</v>
       </c>
@@ -18928,7 +18948,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>8</v>
       </c>
@@ -18966,7 +18986,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>8</v>
       </c>
@@ -19004,7 +19024,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>8</v>
       </c>
@@ -19042,7 +19062,7 @@
         <v>61812900</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>8</v>
       </c>
@@ -19080,7 +19100,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>8</v>
       </c>
@@ -19118,7 +19138,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>8</v>
       </c>
@@ -19156,7 +19176,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>8</v>
       </c>
@@ -19194,7 +19214,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>8</v>
       </c>
@@ -19232,7 +19252,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>8</v>
       </c>
@@ -19270,7 +19290,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>8</v>
       </c>
@@ -19308,7 +19328,7 @@
         <v>4852.6499999999996</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>8</v>
       </c>
@@ -19360,7 +19380,7 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="./TemperatureResult/narrow-strait/8x8.steady"/>
+        <filter val="./TemperatureResult/corner-block/8x8.steady"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19374,44 +19394,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M14"/>
+  <dimension ref="A3:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="14" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>20.454799999999999</v>
-      </c>
-      <c r="D2">
-        <v>638.904</v>
-      </c>
-      <c r="F2">
-        <v>24.315999999999999</v>
-      </c>
-      <c r="G2">
-        <v>3329.5</v>
-      </c>
-      <c r="I2">
-        <v>26.619700000000002</v>
-      </c>
-      <c r="J2">
-        <v>6815.03</v>
-      </c>
-      <c r="L2">
-        <v>25.828499999999998</v>
-      </c>
-      <c r="M2">
-        <v>5712.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19440,7 +19434,7 @@
         <v>3011.96</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -19469,7 +19463,7 @@
         <v>3685.07</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -19498,7 +19492,7 @@
         <v>4611.7299999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -19527,36 +19521,36 @@
         <v>7385.21</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>43.730899999999998</v>
-      </c>
-      <c r="D10">
-        <v>48651.5</v>
-      </c>
-      <c r="F10">
-        <v>42.061500000000002</v>
-      </c>
-      <c r="G10">
-        <v>22631.4</v>
-      </c>
-      <c r="I10">
-        <v>43.730899999999998</v>
-      </c>
-      <c r="J10">
-        <v>48651.5</v>
-      </c>
-      <c r="L10">
-        <v>43.730899999999998</v>
-      </c>
-      <c r="M10">
-        <v>48651.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20.454799999999999</v>
+      </c>
+      <c r="D7">
+        <v>638.904</v>
+      </c>
+      <c r="F7">
+        <v>24.315999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3329.5</v>
+      </c>
+      <c r="I7">
+        <v>26.619700000000002</v>
+      </c>
+      <c r="J7">
+        <v>6815.03</v>
+      </c>
+      <c r="L7">
+        <v>25.828499999999998</v>
+      </c>
+      <c r="M7">
+        <v>5712.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -19585,7 +19579,7 @@
         <v>23744.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -19614,7 +19608,7 @@
         <v>36061.800000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -19643,7 +19637,7 @@
         <v>48651.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -19670,6 +19664,179 @@
       </c>
       <c r="M14">
         <v>109018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>43.730899999999998</v>
+      </c>
+      <c r="D15">
+        <v>48651.5</v>
+      </c>
+      <c r="F15">
+        <v>42.061500000000002</v>
+      </c>
+      <c r="G15">
+        <v>22631.4</v>
+      </c>
+      <c r="I15">
+        <v>43.730899999999998</v>
+      </c>
+      <c r="J15">
+        <v>48651.5</v>
+      </c>
+      <c r="L15">
+        <v>43.730899999999998</v>
+      </c>
+      <c r="M15">
+        <v>48651.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>17.7972</v>
+      </c>
+      <c r="D20">
+        <v>19.4861</v>
+      </c>
+      <c r="E20">
+        <v>19.620999999999999</v>
+      </c>
+      <c r="F20">
+        <v>19.692699999999999</v>
+      </c>
+      <c r="G20">
+        <v>20.454799999999999</v>
+      </c>
+      <c r="J20" s="4">
+        <f>D3/$D$7</f>
+        <v>0.73718117275834871</v>
+      </c>
+      <c r="K20" s="4">
+        <f>D4/D7</f>
+        <v>1.247084068968108</v>
+      </c>
+      <c r="L20" s="4">
+        <f>D5/D7</f>
+        <v>0.92865594831148346</v>
+      </c>
+      <c r="M20" s="4">
+        <f>D6/D7</f>
+        <v>1.1280865356923733</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>19.124600000000001</v>
+      </c>
+      <c r="D21">
+        <v>20.760100000000001</v>
+      </c>
+      <c r="E21">
+        <v>21.9345</v>
+      </c>
+      <c r="F21">
+        <v>19.379100000000001</v>
+      </c>
+      <c r="G21">
+        <v>24.315999999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <f>G3/G7</f>
+        <v>0.69299894879110979</v>
+      </c>
+      <c r="K21" s="4">
+        <f>G4/G7</f>
+        <v>0.78532512389247633</v>
+      </c>
+      <c r="L21" s="4">
+        <f>G5/G7</f>
+        <v>0.85283976573059028</v>
+      </c>
+      <c r="M21" s="4">
+        <f>G6/G7</f>
+        <v>0.70022826250187709</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>23.647500000000001</v>
+      </c>
+      <c r="D22">
+        <v>24.302900000000001</v>
+      </c>
+      <c r="E22">
+        <v>25.303000000000001</v>
+      </c>
+      <c r="F22">
+        <v>25.2469</v>
+      </c>
+      <c r="G22">
+        <v>26.619700000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <f>J3/J7</f>
+        <v>0.66611152115251138</v>
+      </c>
+      <c r="K22" s="4">
+        <f>J4/J7</f>
+        <v>0.70217005647810804</v>
+      </c>
+      <c r="L22" s="4">
+        <f>J5/J7</f>
+        <v>0.85095883657151927</v>
+      </c>
+      <c r="M22" s="4">
+        <f>J6/J7</f>
+        <v>1.1075314415343733</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>21.9711</v>
+      </c>
+      <c r="D23">
+        <v>23.232199999999999</v>
+      </c>
+      <c r="E23">
+        <v>24.186499999999999</v>
+      </c>
+      <c r="F23">
+        <v>26.519300000000001</v>
+      </c>
+      <c r="G23">
+        <v>25.828499999999998</v>
+      </c>
+      <c r="J23" s="4">
+        <f>M3/M7</f>
+        <v>0.52727345934145964</v>
+      </c>
+      <c r="K23" s="4">
+        <f>M4/M7</f>
+        <v>0.64510803822608287</v>
+      </c>
+      <c r="L23" s="4">
+        <f>M5/M7</f>
+        <v>0.80732905837022717</v>
+      </c>
+      <c r="M23" s="4">
+        <f>M6/M7</f>
+        <v>1.2928542293599985</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19680,44 +19847,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>20.863499999999998</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1006540</v>
-      </c>
-      <c r="F2">
-        <v>24.354700000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2928650</v>
-      </c>
-      <c r="I2">
-        <v>28.643899999999999</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10433100</v>
-      </c>
-      <c r="L2">
-        <v>23.072700000000001</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2200330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19727,6 +19877,7 @@
       <c r="D3">
         <v>7802.84</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3">
         <v>13.845499999999999</v>
       </c>
@@ -19746,7 +19897,7 @@
         <v>210837</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -19775,7 +19926,7 @@
         <v>416655</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -19804,7 +19955,7 @@
         <v>1011570</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -19814,6 +19965,7 @@
       <c r="D6">
         <v>429392</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6">
         <v>13.919600000000001</v>
       </c>
@@ -19833,7 +19985,37 @@
         <v>2862160</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20.863499999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1006540</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7">
+        <v>24.354700000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2928650</v>
+      </c>
+      <c r="I7">
+        <v>28.643899999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10433100</v>
+      </c>
+      <c r="L7">
+        <v>23.072700000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2200330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>66.123500000000007</v>
       </c>
@@ -19859,7 +20041,7 @@
         <v>67200000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>54.5764</v>
       </c>
@@ -19885,7 +20067,7 @@
         <v>7130000</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>66.009299999999996</v>
       </c>
@@ -19911,7 +20093,7 @@
         <v>9930000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>61.355699999999999</v>
       </c>
@@ -19937,7 +20119,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>63.578699999999998</v>
       </c>
@@ -19961,6 +20143,272 @@
       </c>
       <c r="M13" s="3">
         <v>61800000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>16.6022</v>
+      </c>
+      <c r="D18">
+        <v>18.6008</v>
+      </c>
+      <c r="E18">
+        <v>19.177199999999999</v>
+      </c>
+      <c r="F18">
+        <v>18.697700000000001</v>
+      </c>
+      <c r="G18">
+        <v>20.863499999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>13.845499999999999</v>
+      </c>
+      <c r="D19">
+        <v>16.985800000000001</v>
+      </c>
+      <c r="E19">
+        <v>19.051400000000001</v>
+      </c>
+      <c r="F19">
+        <v>13.919600000000001</v>
+      </c>
+      <c r="G19">
+        <v>24.354700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>18.988900000000001</v>
+      </c>
+      <c r="D20">
+        <v>23.132899999999999</v>
+      </c>
+      <c r="E20">
+        <v>24.893799999999999</v>
+      </c>
+      <c r="F20">
+        <v>23.4346</v>
+      </c>
+      <c r="G20">
+        <v>28.643899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>19.526499999999999</v>
+      </c>
+      <c r="D21">
+        <v>20.851099999999999</v>
+      </c>
+      <c r="E21">
+        <v>21.859200000000001</v>
+      </c>
+      <c r="F21">
+        <v>24.523</v>
+      </c>
+      <c r="G21">
+        <v>23.072700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" s="4">
+        <v>7.7521409978739044E-3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5.2568589623205236E-5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.9730856600626852E-2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>9.5820626905964101E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="4">
+        <v>0.54718043992290422</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5.9349529646765575E-4</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.3165789650247766E-2</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.18936023232878704</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="4">
+        <v>0.18072903212987065</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.21543646389974902</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.1666532478362136</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.45973558511677792</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="4">
+        <v>0.42660202277107717</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5.1872022945725846E-5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.48231589843862321</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.3007867001767917</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>7.7521409978739044E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.54718043992290422</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.18072903212987065</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.42660202277107717</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <v>5.2568589623205202E-5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.9349529646765575E-4</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.21543646389974902</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5.1872022945725846E-5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K30">
+        <v>0.2</v>
+      </c>
+      <c r="L30">
+        <v>0.44</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C31" s="4">
+        <v>1.9730856600626852E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.3165789650247766E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.1666532478362136</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.48231589843862321</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C32" s="4">
+        <v>9.5820626905964101E-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.18936023232878704</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.45973558511677792</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.3007867001767917</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19971,44 +20419,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>22.203199999999999</v>
-      </c>
-      <c r="D2">
-        <v>6169.04</v>
-      </c>
-      <c r="F2">
-        <v>22.973800000000001</v>
-      </c>
-      <c r="G2">
-        <v>118.42700000000001</v>
-      </c>
-      <c r="I2">
-        <v>28.5566</v>
-      </c>
-      <c r="J2">
-        <v>54182.9</v>
-      </c>
-      <c r="L2">
-        <v>24.1999</v>
-      </c>
-      <c r="M2">
-        <v>696.51400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -20037,7 +20456,7 @@
         <v>109.193</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20066,7 +20485,7 @@
         <v>127.48699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20095,7 +20514,7 @@
         <v>179.38800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20124,7 +20543,36 @@
         <v>306.81599999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>22.203199999999999</v>
+      </c>
+      <c r="D7">
+        <v>6169.04</v>
+      </c>
+      <c r="F7">
+        <v>22.973800000000001</v>
+      </c>
+      <c r="G7">
+        <v>118.42700000000001</v>
+      </c>
+      <c r="I7">
+        <v>28.5566</v>
+      </c>
+      <c r="J7">
+        <v>54182.9</v>
+      </c>
+      <c r="L7">
+        <v>24.1999</v>
+      </c>
+      <c r="M7">
+        <v>696.51400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>51.079799999999999</v>
       </c>
@@ -20150,7 +20598,7 @@
         <v>17344.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>44.396999999999998</v>
       </c>
@@ -20176,7 +20624,7 @@
         <v>1379.61</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>57.676600000000001</v>
       </c>
@@ -20202,7 +20650,7 @@
         <v>1521.36</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>56.122</v>
       </c>
@@ -20228,7 +20676,7 @@
         <v>2782.17</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>51.022599999999997</v>
       </c>
@@ -20252,6 +20700,242 @@
       </c>
       <c r="M13">
         <v>4852.6499999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>19.694400000000002</v>
+      </c>
+      <c r="D17">
+        <v>21.011500000000002</v>
+      </c>
+      <c r="E17">
+        <v>21.210999999999999</v>
+      </c>
+      <c r="F17">
+        <v>21.338699999999999</v>
+      </c>
+      <c r="G17">
+        <v>22.203199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>20.104299999999999</v>
+      </c>
+      <c r="D18">
+        <v>21.067299999999999</v>
+      </c>
+      <c r="E18">
+        <v>21.555299999999999</v>
+      </c>
+      <c r="F18">
+        <v>20.2698</v>
+      </c>
+      <c r="G18">
+        <v>22.973800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>24.885200000000001</v>
+      </c>
+      <c r="D19">
+        <v>25.864999999999998</v>
+      </c>
+      <c r="E19">
+        <v>26.812000000000001</v>
+      </c>
+      <c r="F19">
+        <v>26.6614</v>
+      </c>
+      <c r="G19">
+        <v>28.5566</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>22.630299999999998</v>
+      </c>
+      <c r="D20">
+        <v>23.3018</v>
+      </c>
+      <c r="E20">
+        <v>23.472999999999999</v>
+      </c>
+      <c r="F20">
+        <v>24.537099999999999</v>
+      </c>
+      <c r="G20">
+        <v>24.1999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D22" s="4">
+        <v>5.7473610156523545E-2</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>0.24674018593732847</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>4.5434445184735404E-2</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
+        <v>0.15677071817651905</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="4">
+        <v>1.06400023342368</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>0.28764808700718586</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>4.9932174173032445E-2</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>0.18303580401829683</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D24" s="4">
+        <v>1.036713978187854</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>0.83851486569785605</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>0.26625928106469016</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>0.25755117628647811</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D25" s="4">
+        <v>0.75007456589680077</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0.25714068582333421</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>0.36940806047664482</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>0.44050227274685072</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>0.157473610156523</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.06400023342368</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.036713978187854</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.75007456589680077</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>0.24674018593732847</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.28764808700718586</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.83851486569785605</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.25714068582333421</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C30" s="4">
+        <v>0.145434445184735</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.14993217417303201</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.26625928106469016</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.36940806047664482</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C31" s="4">
+        <v>0.15677071817651905</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.18303580401829683</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.25755117628647811</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.44050227274685072</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20268,9 +20952,9 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -20305,7 +20989,7 @@
         <v>151.80199999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.04</v>
       </c>
@@ -20340,7 +21024,7 @@
         <v>163.233</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -20375,7 +21059,7 @@
         <v>186.20500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -20410,7 +21094,7 @@
         <v>230.17</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.13</v>
       </c>
@@ -20445,7 +21129,7 @@
         <v>367.56099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.16</v>
       </c>
@@ -20480,7 +21164,7 @@
         <v>11836.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.19</v>
       </c>
@@ -20515,7 +21199,7 @@
         <v>66476.600000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.22</v>
       </c>
@@ -20564,9 +21248,9 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:16">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>17.936399999999999</v>
       </c>
@@ -20598,7 +21282,7 @@
         <v>146.56800000000001</v>
       </c>
     </row>
-    <row r="3" spans="3:16">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>72.171499999999995</v>
       </c>
@@ -20630,7 +21314,7 @@
         <v>151.80600000000001</v>
       </c>
     </row>
-    <row r="4" spans="3:16">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>125.84099999999999</v>
       </c>
@@ -20662,7 +21346,7 @@
         <v>158.285</v>
       </c>
     </row>
-    <row r="5" spans="3:16">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>179.614</v>
       </c>
@@ -20694,7 +21378,7 @@
         <v>167.352</v>
       </c>
     </row>
-    <row r="6" spans="3:16">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>232.26400000000001</v>
       </c>
@@ -20726,7 +21410,7 @@
         <v>178.048</v>
       </c>
     </row>
-    <row r="7" spans="3:16">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>270.38499999999999</v>
       </c>
@@ -20758,7 +21442,7 @@
         <v>192.66399999999999</v>
       </c>
     </row>
-    <row r="8" spans="3:16">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>297.55399999999997</v>
       </c>
@@ -20790,7 +21474,7 @@
         <v>210.24799999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:16">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>317.91500000000002</v>
       </c>
@@ -20836,9 +21520,9 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -20873,7 +21557,7 @@
         <v>164.79499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.04</v>
       </c>
@@ -20908,7 +21592,7 @@
         <v>196.61699999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -20943,7 +21627,7 @@
         <v>303.22500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -20978,7 +21662,7 @@
         <v>4079.13</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.13</v>
       </c>
@@ -21013,7 +21697,7 @@
         <v>76511.399999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.16</v>
       </c>
@@ -21048,7 +21732,7 @@
         <v>102778</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.19</v>
       </c>
@@ -21083,7 +21767,7 @@
         <v>114253</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.22</v>
       </c>
@@ -21132,9 +21816,9 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -21169,7 +21853,7 @@
         <v>149.34</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.04</v>
       </c>
@@ -21204,7 +21888,7 @@
         <v>163.95099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -21239,7 +21923,7 @@
         <v>191.48599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -21274,7 +21958,7 @@
         <v>259.83699999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.13</v>
       </c>
@@ -21309,7 +21993,7 @@
         <v>3062.71</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.16</v>
       </c>
@@ -21344,7 +22028,7 @@
         <v>16378.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.19</v>
       </c>
@@ -21379,7 +22063,7 @@
         <v>28497.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.22</v>
       </c>
